--- a/premium/src/main/resources/child_ss_premium.xlsx
+++ b/premium/src/main/resources/child_ss_premium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/superstar/superstar/premium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E68EA35-01B5-E440-9967-8DDF8D3E62C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C2002C-D5B8-CC4A-BF57-F4F8968A9EE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13660" yWindow="740" windowWidth="14660" windowHeight="17220" xr2:uid="{F65098A0-B808-204D-B599-C9347E1058E3}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,27 +56,37 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,13 +95,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF1F4E78"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -120,23 +124,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -451,7 +463,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J4"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,104 +496,104 @@
       <c r="I1" s="2">
         <v>10000000</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>3060</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3824</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4131</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4833</v>
-      </c>
-      <c r="F2" s="3">
-        <v>5340</v>
-      </c>
-      <c r="G2" s="3">
-        <v>6048</v>
-      </c>
-      <c r="H2" s="3">
-        <v>6753</v>
-      </c>
-      <c r="I2" s="3">
-        <v>7404</v>
-      </c>
-      <c r="J2" s="3">
-        <v>9514</v>
+      <c r="B2" s="5">
+        <v>2643</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3032</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3220</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3848</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3977</v>
+      </c>
+      <c r="G2" s="5">
+        <v>4150</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4423</v>
+      </c>
+      <c r="I2" s="5">
+        <v>4652</v>
+      </c>
+      <c r="J2" s="5">
+        <v>5314</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>3830</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4788</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5171</v>
-      </c>
-      <c r="E3" s="3">
-        <v>6050</v>
-      </c>
-      <c r="F3" s="3">
-        <v>6685</v>
-      </c>
-      <c r="G3" s="3">
-        <v>7572</v>
-      </c>
-      <c r="H3" s="3">
-        <v>8453</v>
-      </c>
-      <c r="I3" s="3">
-        <v>9269</v>
-      </c>
-      <c r="J3" s="3">
-        <v>11910</v>
+      <c r="B3" s="5">
+        <v>3172</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3639</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3863</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4618</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4772</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4979</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5308</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5582</v>
+      </c>
+      <c r="J3" s="5">
+        <v>6377</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <v>4485</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5605</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6054</v>
-      </c>
-      <c r="E4" s="3">
-        <v>7083</v>
-      </c>
-      <c r="F4" s="3">
-        <v>7827</v>
-      </c>
-      <c r="G4" s="3">
-        <v>8865</v>
-      </c>
-      <c r="H4" s="3">
-        <v>9897</v>
-      </c>
-      <c r="I4" s="3">
-        <v>10852</v>
-      </c>
-      <c r="J4" s="3">
-        <v>13945</v>
+      <c r="B4" s="5">
+        <v>3701</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4245</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4507</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5388</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5567</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5809</v>
+      </c>
+      <c r="H4" s="5">
+        <v>6192</v>
+      </c>
+      <c r="I4" s="5">
+        <v>6512</v>
+      </c>
+      <c r="J4" s="5">
+        <v>7439</v>
       </c>
     </row>
   </sheetData>
